--- a/project/DCR/data/传音员工批导_离职员工_用户类型_个人信息.xlsx
+++ b/project/DCR/data/传音员工批导_离职员工_用户类型_个人信息.xlsx
@@ -238,22 +238,22 @@
     <t>2022-12-09 02:47:12</t>
   </si>
   <si>
-    <t>翁佳柯1</t>
-  </si>
-  <si>
-    <t>fuxingyu</t>
-  </si>
-  <si>
-    <t>8</t>
+    <t>陈彦冰1</t>
+  </si>
+  <si>
+    <t>can_promoter</t>
   </si>
   <si>
     <t>123123@TRANSSION.COM</t>
   </si>
   <si>
-    <t>2022-11-28 06:26:59</t>
-  </si>
-  <si>
-    <t>2022-11-28 07:13:22</t>
+    <t xml:space="preserve"> 2021-02-24 13:48:56</t>
+  </si>
+  <si>
+    <t>indiaadmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2022-08-18 13:57:12</t>
   </si>
 </sst>
 </file>
@@ -763,7 +763,7 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -911,7 +911,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -931,6 +931,14 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1254,8 +1262,8 @@
   <sheetPr/>
   <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AB28" sqref="AB27:AB28"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T3" sqref="T3:U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
@@ -1581,8 +1589,8 @@
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>69</v>
+      <c r="B4" s="3">
+        <v>18645012</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>74</v>
@@ -1594,7 +1602,7 @@
         <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>64</v>
@@ -1606,10 +1614,10 @@
         <v>66</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>65</v>
@@ -1625,20 +1633,20 @@
       <c r="S4" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="T4" s="3">
-        <v>18650429</v>
+      <c r="T4" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>47</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="3" t="s">
         <v>72</v>
@@ -1658,13 +1666,13 @@
       <c r="AD4" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AE4" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AF4" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AG4" s="7" t="s">
         <v>79</v>
       </c>
       <c r="AH4" s="3"/>
